--- a/Sub-System Design and Documentation/Parts List and Cost Analysis.xlsx
+++ b/Sub-System Design and Documentation/Parts List and Cost Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Microgravity-Press-Washing-Machine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Microgravity-Press-Washing-Machine\Sub-System Design and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60D2309-A3FD-406D-8F3A-994D41E5CE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791063EF-37AC-481B-97F7-A5FE5D2D18F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>Specs</t>
   </si>
@@ -248,10 +248,13 @@
     <t>Safety</t>
   </si>
   <si>
-    <t>Components present to aid in or for the expressed purpose of improving safety of the machine. Functions including overcurrent protection and leak protection</t>
+    <t>F</t>
   </si>
   <si>
-    <t>F</t>
+    <t>Components present to aid in or for the expressed purpose of improving safety of the machine. Functions including overcurrent protection and leak detection</t>
+  </si>
+  <si>
+    <t>Pressure Relief Valve</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
   <dimension ref="B3:N469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -990,6 +993,12 @@
     <row r="17" spans="5:13" x14ac:dyDescent="0.45">
       <c r="E17">
         <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -11066,7 +11075,7 @@
   <dimension ref="C7:E15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11089,7 +11098,7 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -11122,12 +11131,12 @@
         <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>

--- a/Sub-System Design and Documentation/Parts List and Cost Analysis.xlsx
+++ b/Sub-System Design and Documentation/Parts List and Cost Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Microgravity-Press-Washing-Machine\Sub-System Design and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E808FD-F2F6-4794-9AF9-6000F52D3705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9821C6-055E-4D91-B623-908676866460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="Assembly Description" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>Link</t>
   </si>
@@ -259,6 +258,15 @@
   </si>
   <si>
     <t>Amazon.com: 4PCS Servo Motor MG995 Control Angle180 Metal Gear Servo 20KG Digital High Speed Torque Servo Motor for Smart Car Robot Boat RC Helicopter : Toys &amp; Games</t>
+  </si>
+  <si>
+    <t>Valve Control (Append Later)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B08R9MGSWV?psc=1&amp;smid=A2Z10KY0342329&amp;ref_=chk_typ_imgToDp</t>
+  </si>
+  <si>
+    <t>Ammeter INA219 I2C Interface Bidirectional DC Current/Power Monitoring Sensor Module</t>
   </si>
 </sst>
 </file>
@@ -597,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1783,14 +1791,23 @@
       <c r="A46">
         <v>44</v>
       </c>
+      <c r="G46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s">
+        <v>75</v>
+      </c>
       <c r="I46">
         <v>1</v>
       </c>
+      <c r="J46" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="K46">
-        <v>0</v>
+        <v>12.99</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="0"/>
@@ -1798,7 +1815,7 @@
       </c>
       <c r="N46" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.45">
@@ -11043,9 +11060,10 @@
     <hyperlink ref="J30" r:id="rId5" display="https://www.amazon.com/gp/product/B07VD6QWZL/ref=ewc_pr_img_1?smid=A2KRDQ1AI5Y5G6&amp;psc=1" xr:uid="{34F3015D-C5A0-41E2-849C-D912589DB82C}"/>
     <hyperlink ref="J43" r:id="rId6" xr:uid="{EDD14454-DBF7-4BE6-ACDC-55FC75B20A4F}"/>
     <hyperlink ref="J11" r:id="rId7" display="https://www.amazon.com/Control-Angle180-Digital-Torque-Helicopter/dp/B07NQJ1VZ2?pd_rd_w=o4u9k&amp;content-id=amzn1.sym.19a914cd-0dca-42c7-976a-adbe4da0b2c6&amp;pf_rd_p=19a914cd-0dca-42c7-976a-adbe4da0b2c6&amp;pf_rd_r=1WH70Z685459XVCK4SVK&amp;pd_rd_wg=sznvv&amp;pd_rd_r=70da1834-5d84-497a-8c6a-90a6bb2331d0&amp;pd_rd_i=B07NQJ1VZ2&amp;psc=1&amp;ref_=pd_bap_d_grid_rp_0_1_ec_t" xr:uid="{350C2595-6DCC-4D51-813A-71E3B90526EA}"/>
+    <hyperlink ref="J46" r:id="rId8" xr:uid="{53F1C8F3-EB82-49BF-B78A-3916C23B6304}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/Sub-System Design and Documentation/Parts List and Cost Analysis.xlsx
+++ b/Sub-System Design and Documentation/Parts List and Cost Analysis.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy Rohmann\Documents\Repositories\Microgravity-Press-Washing-Machine\Sub-System Design and Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Microgravity-Press-Washing-Machine/Sub-System Design and Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D917D78E-4147-4BCD-843E-1DD318EE102F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D917D78E-4147-4BCD-843E-1DD318EE102F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F595A46B-50ED-410D-A31D-1736004F419D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts &amp; Assembly List" sheetId="1" r:id="rId1"/>
     <sheet name="Subsystem Description" sheetId="2" r:id="rId2"/>
     <sheet name="Assembly Description" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,55 +40,88 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
+    <t>mass kg</t>
+  </si>
+  <si>
+    <t>$/kg</t>
+  </si>
+  <si>
+    <t>Part #</t>
+  </si>
+  <si>
+    <t>Purchase or Fabrication?</t>
+  </si>
+  <si>
+    <t>Sub-System</t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>Part Name</t>
+  </si>
+  <si>
+    <t># Parts Req</t>
+  </si>
+  <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>Price/Pkg</t>
+  </si>
+  <si>
+    <t>Parts/Pkg</t>
+  </si>
+  <si>
+    <t>Pkgs to Order</t>
+  </si>
+  <si>
+    <t>Cost of Parts</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Part of Assemblies</t>
+  </si>
+  <si>
+    <t>Assembly #</t>
+  </si>
+  <si>
+    <t>Electronic?</t>
+  </si>
+  <si>
+    <t>Date Updated</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Piping/Fluid Control</t>
+  </si>
+  <si>
+    <t>Ball Valve</t>
   </si>
   <si>
     <t>https://www.amazon.com/dp/B019U87UQ4/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B019U87UQ4&amp;pd_rd_w=uRW9V&amp;content-id=amzn1.sym.dd2c6db7-6626-466d-bf04-9570e69a7df0&amp;pf_rd_p=dd2c6db7-6626-466d-bf04-9570e69a7df0&amp;pf_rd_r=225ETS73H2852Z99D761&amp;pd_rd_wg=3D4rT&amp;pd_rd_r=9b2c3f2b-c2b1-47d8-af44-4ad3f0200e7d&amp;s=hi&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWxfdGhlbWF0aWM&amp;smid=A3E0SBPIY1LXW8&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzMU9SOElRWEJFMTY3JmVuY3J5cHRlZElkPUEwMzc4MjQ2M1BUVDIxVllRN0tJTCZlbmNyeXB0ZWRBZElkPUEwNzU5NTkwMTBITUM1WlpPN0xCVCZ3aWRnZXROYW1lPXNwX2RldGFpbF90aGVtYXRpYyZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=</t>
   </si>
   <si>
-    <t>Parts/Pkg</t>
-  </si>
-  <si>
-    <t>Price/Pkg</t>
-  </si>
-  <si>
-    <t>Ball Valve</t>
+    <t>Turning Resistance X Nm</t>
   </si>
   <si>
     <t>Tee Fitting</t>
   </si>
   <si>
-    <t># Parts Req</t>
-  </si>
-  <si>
-    <t>Cost of Parts</t>
-  </si>
-  <si>
-    <t>Sub-System</t>
+    <t>https://www.amazon.com/Malida-Connect-Reverse-Osmosis-System/dp/B00YYKB9K2/ref=pd_bxgy_vft_none_img_sccl_1/147-2290966-7422106?pd_rd_w=FvAsa&amp;content-id=amzn1.sym.7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_p=7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_r=678W2XE3CCP73JHQ5X2J&amp;pd_rd_wg=TCnbU&amp;pd_rd_r=601c734b-77d9-45b2-90ab-c781acc1d53e&amp;pd_rd_i=B00YYKB9K2&amp;psc=1</t>
   </si>
   <si>
     <t>1/4" OD PEX Pipe</t>
   </si>
   <si>
-    <t>Servos for Ball Valves</t>
-  </si>
-  <si>
-    <t>Pkgs to Order</t>
-  </si>
-  <si>
-    <t>Piping/Fluid Control</t>
-  </si>
-  <si>
-    <t>Part #</t>
-  </si>
-  <si>
-    <t>Electronic?</t>
-  </si>
-  <si>
-    <t>P/V Transducer</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>https://www.amazon.com/gp/product/B08FCQKH2F/ref=sw_img_1?smid=A240VLH05F6IET&amp;th=1</t>
   </si>
   <si>
     <t>Quick Connect to MNPT Fitting</t>
@@ -97,40 +130,10 @@
     <t>Hose/Movable Fitting</t>
   </si>
   <si>
-    <t>Sub-System List</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Part Name</t>
-  </si>
-  <si>
-    <t>Control of wash water going between reserviors</t>
-  </si>
-  <si>
-    <t>Frame/Structure</t>
-  </si>
-  <si>
-    <t>Assembly #</t>
-  </si>
-  <si>
-    <t>Turning Resistance X Nm</t>
-  </si>
-  <si>
-    <t>Torque of X Nm</t>
-  </si>
-  <si>
     <t>Check Valve</t>
   </si>
   <si>
     <t>https://www.amazon.com/ESHIONG-Straight-Reverse-Fittings%EF%BC%881-Purifiers%EF%BC%89/dp/B088DDX593/ref=sr_1_1_sspa?content-id=amzn1.sym.9575273b-ecd8-4648-9bf0-15f20c657e0a&amp;keywords=ro%2Bcheck%2Bvalve&amp;pd_rd_r=1af7a1bd-e624-4f69-ae57-e1a456d389f2&amp;pd_rd_w=RcPqF&amp;pd_rd_wg=aljBP&amp;pf_rd_p=9575273b-ecd8-4648-9bf0-15f20c657e0a&amp;pf_rd_r=TF7WYWSQ1V7A797EMJ1P&amp;qid=1674251369&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFJU0tQNVM1MDhVM1UmZW5jcnlwdGVkSWQ9QTA5MjIyMjJUVU9IMFBRMVVQM1UmZW5jcnlwdGVkQWRJZD1BMDk5MzUwN1IzRUZTUTIwTVM2UCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Malida-Connect-Reverse-Osmosis-System/dp/B00YYKB9K2/ref=pd_bxgy_vft_none_img_sccl_1/147-2290966-7422106?pd_rd_w=FvAsa&amp;content-id=amzn1.sym.7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_p=7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_r=678W2XE3CCP73JHQ5X2J&amp;pd_rd_wg=TCnbU&amp;pd_rd_r=601c734b-77d9-45b2-90ab-c781acc1d53e&amp;pd_rd_i=B00YYKB9K2&amp;psc=1</t>
   </si>
   <si>
     <t>PEX to Male NPT 1/4"</t>
@@ -139,151 +142,43 @@
     <t>https://www.amazon.com/Malida-Connect-Fitting-Reverse-Osmosis/dp/B01M2XEJZA/ref=sr_1_2?content-id=amzn1.sym.9575273b-ecd8-4648-9bf0-15f20c657e0a&amp;keywords=reverse%2Bosmosis%2Bfittings&amp;pd_rd_r=1af7a1bd-e624-4f69-ae57-e1a456d389f2&amp;pd_rd_w=RcPqF&amp;pd_rd_wg=aljBP&amp;pf_rd_p=9575273b-ecd8-4648-9bf0-15f20c657e0a&amp;pf_rd_r=TF7WYWSQ1V7A797EMJ1P&amp;qid=1674251367&amp;sr=8-2&amp;th=1</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/product/B08FCQKH2F/ref=sw_img_1?smid=A240VLH05F6IET&amp;th=1</t>
+    <t>E</t>
   </si>
   <si>
-    <t>HX711</t>
+    <t>Servos for Ball Valves</t>
   </si>
   <si>
-    <t>Misc Electrical</t>
+    <t>Amazon.com: 4PCS Servo Motor MG995 Control Angle180 Metal Gear Servo 20KG Digital High Speed Torque Servo Motor for Smart Car Robot Boat RC Helicopter : Toys &amp; Games</t>
   </si>
   <si>
-    <t>Wire</t>
+    <t>Torque of X Nm</t>
   </si>
   <si>
-    <t>Computer Control/UI</t>
+    <t>Y</t>
   </si>
   <si>
-    <t>Drive Train</t>
+    <t>P/V Transducer</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Pressure Relief Valve</t>
+  </si>
+  <si>
+    <t>Wash Chamber</t>
+  </si>
+  <si>
+    <t>4" SCH 40 PVC Pipe Clear</t>
   </si>
   <si>
     <t>https://www.amazon.com/gp/product/B07VD4RYXT/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;th=1</t>
   </si>
   <si>
-    <t>4" SCH 40 PVC Pipe Clear</t>
-  </si>
-  <si>
-    <t>Part of Assemblies</t>
-  </si>
-  <si>
-    <t>Abbreviation</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Electric/Control System</t>
-  </si>
-  <si>
-    <t>Electronic control of various components including force application, UI, Safety/Automation Systems</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Safety</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>Components present to aid in or for the expressed purpose of improving safety of the machine. Functions including overcurrent protection and leak detection</t>
-  </si>
-  <si>
-    <t>Pressure Relief Valve</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/product/B0B8R1V19B/ref=ppx_yo_dt_b_asin_title_o07_s01?ie=UTF8&amp;th=1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Raspberry-Model-2019-Quad-Bluetooth/dp/B07TC2BK1X/ref=sr_1_3?crid=3HSNZCHUVFUYU&amp;keywords=raspberry+pi+4&amp;qid=1692585223&amp;s=electronics&amp;sprefix=rasp%2Celectronics%2C135&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.006c50ae-5d4c-4777-9bc0-4513d670b6bc</t>
-  </si>
-  <si>
-    <t>Raspberry Pi 4 Model B</t>
-  </si>
-  <si>
-    <t>Date Updated</t>
-  </si>
-  <si>
-    <t>Amazon.com: Load Cell Spoke Type DYLF-102 Weighing Sensor Pull Rod Pressure Tension Sensor 0~1000kg for Industrial Weighing Devices : Industrial &amp; Scientific</t>
-  </si>
-  <si>
-    <t>1000 kg Load Cell</t>
-  </si>
-  <si>
-    <t>M16*1.5 Hole Size Approx 14.701 mm (.579 in) Dia and OD of Load Cell is 74 mm (2.91 inches)</t>
-  </si>
-  <si>
-    <t>DSI Cable Included</t>
-  </si>
-  <si>
-    <t>4.3 inch IPS LCD Capacitive Touc Screen Display 800×480 DSI</t>
-  </si>
-  <si>
-    <t>Amazon.com: 4PCS Servo Motor MG995 Control Angle180 Metal Gear Servo 20KG Digital High Speed Torque Servo Motor for Smart Car Robot Boat RC Helicopter : Toys &amp; Games</t>
-  </si>
-  <si>
-    <t>Valve Control (Append Later)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/dp/B08R9MGSWV?psc=1&amp;smid=A2Z10KY0342329&amp;ref_=chk_typ_imgToDp</t>
-  </si>
-  <si>
-    <t>Ammeter INA219 I2C Interface Bidirectional DC Current/Power Monitoring Sensor Module</t>
-  </si>
-  <si>
-    <t>Wash Chamber</t>
-  </si>
-  <si>
-    <t>Purchase or Fabrication?</t>
-  </si>
-  <si>
-    <t>Sensing Electronics</t>
-  </si>
-  <si>
-    <t>Sensor Electronics</t>
-  </si>
-  <si>
-    <t>Purchase</t>
-  </si>
-  <si>
-    <t>Stepper Motor</t>
-  </si>
-  <si>
-    <t>Stepper Motor Controller</t>
-  </si>
-  <si>
-    <t>Limit Switch</t>
-  </si>
-  <si>
-    <t>$/kg</t>
-  </si>
-  <si>
-    <t>mass kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frame </t>
-  </si>
-  <si>
-    <t>Materials Required for Fabricated Parts</t>
-  </si>
-  <si>
-    <t>3D Printing Fillament (PLA)</t>
-  </si>
-  <si>
-    <t>Aluminum</t>
-  </si>
-  <si>
-    <t>Propane</t>
-  </si>
-  <si>
-    <t>Casting Sand</t>
-  </si>
-  <si>
-    <t>Manufacturing Process Consumables</t>
-  </si>
-  <si>
-    <t>Assembly</t>
+    <t>Drive Train</t>
   </si>
   <si>
     <t>Belt</t>
@@ -301,7 +196,97 @@
     <t>Thrust Bearings</t>
   </si>
   <si>
-    <t>P</t>
+    <t>Stepper Motor</t>
+  </si>
+  <si>
+    <t>Stepper Motor Controller</t>
+  </si>
+  <si>
+    <t>Limit Switch</t>
+  </si>
+  <si>
+    <t>Sensing Electronics</t>
+  </si>
+  <si>
+    <t>1000 kg Load Cell</t>
+  </si>
+  <si>
+    <t>Sensor Electronics</t>
+  </si>
+  <si>
+    <t>HX711</t>
+  </si>
+  <si>
+    <t>Amazon.com: Load Cell Spoke Type DYLF-102 Weighing Sensor Pull Rod Pressure Tension Sensor 0~1000kg for Industrial Weighing Devices : Industrial &amp; Scientific</t>
+  </si>
+  <si>
+    <t>M16*1.5 Hole Size Approx 14.701 mm (.579 in) Dia and OD of Load Cell is 74 mm (2.91 inches)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frame </t>
+  </si>
+  <si>
+    <t>Computer Control/UI</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4 Model B</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Raspberry-Model-2019-Quad-Bluetooth/dp/B07TC2BK1X/ref=sr_1_3?crid=3HSNZCHUVFUYU&amp;keywords=raspberry+pi+4&amp;qid=1692585223&amp;s=electronics&amp;sprefix=rasp%2Celectronics%2C135&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.006c50ae-5d4c-4777-9bc0-4513d670b6bc</t>
+  </si>
+  <si>
+    <t>4.3 inch IPS LCD Capacitive Touc Screen Display 800×480 DSI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B0B8R1V19B/ref=ppx_yo_dt_b_asin_title_o07_s01?ie=UTF8&amp;th=1</t>
+  </si>
+  <si>
+    <t>DSI Cable Included</t>
+  </si>
+  <si>
+    <t>Valve Control (Append Later)</t>
+  </si>
+  <si>
+    <t>Ammeter INA219 I2C Interface Bidirectional DC Current/Power Monitoring Sensor Module</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B08R9MGSWV?psc=1&amp;smid=A2Z10KY0342329&amp;ref_=chk_typ_imgToDp</t>
+  </si>
+  <si>
+    <t>Misc Electrical</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>Materials Required for Fabricated Parts</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>3D Printing Fillament (PLA)</t>
+  </si>
+  <si>
+    <t>Manufacturing Process Consumables</t>
+  </si>
+  <si>
+    <t>Propane</t>
+  </si>
+  <si>
+    <t>Casting Sand</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>Sub-System List</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Control of wash water going between reserviors</t>
   </si>
   <si>
     <t>W</t>
@@ -311,6 +296,21 @@
   </si>
   <si>
     <t>Components specially made for wash cycle</t>
+  </si>
+  <si>
+    <t>Electric/Control System</t>
+  </si>
+  <si>
+    <t>Electronic control of various components including force application, UI, Safety/Automation Systems</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Components present to aid in or for the expressed purpose of improving safety of the machine. Functions including overcurrent protection and leak detection</t>
+  </si>
+  <si>
+    <t>Frame/Structure</t>
   </si>
   <si>
     <t xml:space="preserve">External piping used to facilitate fluid sensing and flow </t>
@@ -652,108 +652,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T465"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.53125" customWidth="1"/>
-    <col min="4" max="4" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.9296875" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="13" max="13" width="10.9296875" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.265625" customWidth="1"/>
-    <col min="18" max="18" width="10.73046875" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J1" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="L1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>0</v>
-      </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N2" t="s">
         <v>11</v>
       </c>
       <c r="O2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
       </c>
       <c r="J3">
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L3">
         <v>8.85</v>
@@ -770,7 +770,7 @@
         <v>8.85</v>
       </c>
       <c r="P3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -779,27 +779,27 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -822,27 +822,27 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L5">
         <v>9.99</v>
@@ -866,21 +866,21 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -906,21 +906,21 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -946,27 +946,27 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L8">
         <v>10.99</v>
@@ -986,27 +986,27 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1026,18 +1026,18 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1060,27 +1060,27 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J11">
         <v>4</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="L11">
         <v>18.899999999999999</v>
@@ -1097,30 +1097,30 @@
         <v>37.799999999999997</v>
       </c>
       <c r="P11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="S11" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="T11" s="3">
         <v>45158</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1140,27 +1140,27 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="T12" s="3">
         <v>45158</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1224,27 +1224,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1283,18 +1283,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1314,18 +1314,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
         <v>48</v>
-      </c>
-      <c r="H19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" t="s">
-        <v>83</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1345,18 +1345,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1376,18 +1376,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1408,18 +1408,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1439,15 +1439,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1467,15 +1467,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1495,15 +1495,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1523,15 +1523,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1551,12 +1551,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1576,22 +1576,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="F28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" t="s">
-        <v>56</v>
-      </c>
       <c r="J28">
         <v>1</v>
       </c>
@@ -1610,21 +1598,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H29" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1644,15 +1632,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
       <c r="J30">
         <v>4</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L30">
         <v>54.61</v>
@@ -1669,13 +1669,13 @@
         <v>218.44</v>
       </c>
       <c r="P30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1744,12 +1744,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1813,12 +1813,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1926,21 +1926,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I42" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L42">
         <v>70.5</v>
@@ -1960,21 +1960,21 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I43" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L43">
         <v>38.950000000000003</v>
@@ -1991,13 +1991,13 @@
         <v>38.950000000000003</v>
       </c>
       <c r="P43" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="T43" s="3">
         <v>45158</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2041,21 +2041,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I46" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L46">
         <v>12.99</v>
@@ -2072,7 +2072,7 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2160,15 +2160,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="I51" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2386,15 +2386,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="G61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I61" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -2414,12 +2414,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="I62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2549,15 +2549,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="G68" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -2577,12 +2577,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="I69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>366</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>367</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>368</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>369</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>370</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>371</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>372</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>373</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>374</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>375</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>376</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>377</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>378</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>379</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>380</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>381</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>382</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>383</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>384</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>385</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>386</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>387</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>388</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>389</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>390</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>391</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>392</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>393</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>394</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>395</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>396</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>397</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>398</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>399</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>400</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>401</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>402</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>403</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>404</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>405</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>406</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>407</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>408</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>409</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>410</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>411</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>412</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>413</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>414</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>415</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>416</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>417</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>418</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>419</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>420</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>421</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>422</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>423</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>424</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>425</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>426</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>427</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>428</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>429</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>430</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>431</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>432</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>433</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>434</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>435</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>436</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>437</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>438</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>439</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>440</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>441</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>442</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>443</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>444</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>445</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>446</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>447</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>448</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>449</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>450</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>451</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>452</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>453</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>454</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>455</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>456</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>457</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>458</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>459</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>460</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>461</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>462</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>463</v>
       </c>
@@ -11338,74 +11338,74 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="129.796875" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="129.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
         <v>87</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
         <v>88</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E12" t="s">
         <v>89</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -11417,18 +11417,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3382AFC-6AAC-4889-90B3-ED184871B204}">
   <dimension ref="D9:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.19921875" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>91</v>

--- a/Sub-System Design and Documentation/Parts List and Cost Analysis.xlsx
+++ b/Sub-System Design and Documentation/Parts List and Cost Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy Rohmann\Documents\Repositories\Microgravity-Press-Washing-Machine\Sub-System Design and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5CF804-7AFF-4B6B-8720-CFB1E1449F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0958380E-C479-43D5-A3F5-8313B2BDE511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="111">
   <si>
     <t>Link</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>Ball Valve Servo Mounts</t>
+  </si>
+  <si>
+    <t>Amazon.com: USA Sealing BULK-PR-UHMW-111 UHMW Polyethylene Plastic Rod, 4" Diameter, 1' Length : Industrial &amp; Scientific</t>
   </si>
 </sst>
 </file>
@@ -719,10 +722,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q465"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="74" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1959,8 +1962,8 @@
       <c r="I39" t="s">
         <v>87</v>
       </c>
-      <c r="J39" t="s">
-        <v>98</v>
+      <c r="J39" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -11493,9 +11496,10 @@
     <hyperlink ref="J44" r:id="rId11" xr:uid="{72D1F9E1-3E9A-4E6B-9497-F15E0439B9A4}"/>
     <hyperlink ref="J37" r:id="rId12" xr:uid="{48C10024-22F2-4309-A480-C3BBFFA9FE3B}"/>
     <hyperlink ref="J16" r:id="rId13" xr:uid="{4599524B-8BA4-4722-983D-FB2C8D501B20}"/>
+    <hyperlink ref="J39" r:id="rId14" display="https://www.amazon.com/gp/product/B07Y5KY2GT/ref=ewc_pr_img_1?smid=ATVPDKIKX0DER&amp;psc=1" xr:uid="{F1A40020-1F6C-462D-A0D7-561105AE949B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/Sub-System Design and Documentation/Parts List and Cost Analysis.xlsx
+++ b/Sub-System Design and Documentation/Parts List and Cost Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Microgravity-Press-Washing-Machine/Sub-System Design and Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/Sub-System Design and Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D917D78E-4147-4BCD-843E-1DD318EE102F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F595A46B-50ED-410D-A31D-1736004F419D}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{D917D78E-4147-4BCD-843E-1DD318EE102F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEC1CE76-E7B3-4100-BFF9-652A5E467E29}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts &amp; Assembly List" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="100">
   <si>
     <t>mass kg</t>
   </si>
@@ -103,16 +103,10 @@
     <t>Piping/Fluid Control</t>
   </si>
   <si>
-    <t>Ball Valve</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/dp/B019U87UQ4/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B019U87UQ4&amp;pd_rd_w=uRW9V&amp;content-id=amzn1.sym.dd2c6db7-6626-466d-bf04-9570e69a7df0&amp;pf_rd_p=dd2c6db7-6626-466d-bf04-9570e69a7df0&amp;pf_rd_r=225ETS73H2852Z99D761&amp;pd_rd_wg=3D4rT&amp;pd_rd_r=9b2c3f2b-c2b1-47d8-af44-4ad3f0200e7d&amp;s=hi&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWxfdGhlbWF0aWM&amp;smid=A3E0SBPIY1LXW8&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzMU9SOElRWEJFMTY3JmVuY3J5cHRlZElkPUEwMzc4MjQ2M1BUVDIxVllRN0tJTCZlbmNyeXB0ZWRBZElkPUEwNzU5NTkwMTBITUM1WlpPN0xCVCZ3aWRnZXROYW1lPXNwX2RldGFpbF90aGVtYXRpYyZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=</t>
   </si>
   <si>
     <t>Turning Resistance X Nm</t>
-  </si>
-  <si>
-    <t>Tee Fitting</t>
   </si>
   <si>
     <t>https://www.amazon.com/Malida-Connect-Reverse-Osmosis-System/dp/B00YYKB9K2/ref=pd_bxgy_vft_none_img_sccl_1/147-2290966-7422106?pd_rd_w=FvAsa&amp;content-id=amzn1.sym.7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_p=7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_r=678W2XE3CCP73JHQ5X2J&amp;pd_rd_wg=TCnbU&amp;pd_rd_r=601c734b-77d9-45b2-90ab-c781acc1d53e&amp;pd_rd_i=B00YYKB9K2&amp;psc=1</t>
@@ -124,19 +118,10 @@
     <t>https://www.amazon.com/gp/product/B08FCQKH2F/ref=sw_img_1?smid=A240VLH05F6IET&amp;th=1</t>
   </si>
   <si>
-    <t>Quick Connect to MNPT Fitting</t>
-  </si>
-  <si>
-    <t>Hose/Movable Fitting</t>
-  </si>
-  <si>
     <t>Check Valve</t>
   </si>
   <si>
     <t>https://www.amazon.com/ESHIONG-Straight-Reverse-Fittings%EF%BC%881-Purifiers%EF%BC%89/dp/B088DDX593/ref=sr_1_1_sspa?content-id=amzn1.sym.9575273b-ecd8-4648-9bf0-15f20c657e0a&amp;keywords=ro%2Bcheck%2Bvalve&amp;pd_rd_r=1af7a1bd-e624-4f69-ae57-e1a456d389f2&amp;pd_rd_w=RcPqF&amp;pd_rd_wg=aljBP&amp;pf_rd_p=9575273b-ecd8-4648-9bf0-15f20c657e0a&amp;pf_rd_r=TF7WYWSQ1V7A797EMJ1P&amp;qid=1674251369&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFJU0tQNVM1MDhVM1UmZW5jcnlwdGVkSWQ9QTA5MjIyMjJUVU9IMFBRMVVQM1UmZW5jcnlwdGVkQWRJZD1BMDk5MzUwN1IzRUZTUTIwTVM2UCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1</t>
-  </si>
-  <si>
-    <t>PEX to Male NPT 1/4"</t>
   </si>
   <si>
     <t>https://www.amazon.com/Malida-Connect-Fitting-Reverse-Osmosis/dp/B01M2XEJZA/ref=sr_1_2?content-id=amzn1.sym.9575273b-ecd8-4648-9bf0-15f20c657e0a&amp;keywords=reverse%2Bosmosis%2Bfittings&amp;pd_rd_r=1af7a1bd-e624-4f69-ae57-e1a456d389f2&amp;pd_rd_w=RcPqF&amp;pd_rd_wg=aljBP&amp;pf_rd_p=9575273b-ecd8-4648-9bf0-15f20c657e0a&amp;pf_rd_r=TF7WYWSQ1V7A797EMJ1P&amp;qid=1674251367&amp;sr=8-2&amp;th=1</t>
@@ -191,18 +176,6 @@
   </si>
   <si>
     <t>Journal Bearings</t>
-  </si>
-  <si>
-    <t>Thrust Bearings</t>
-  </si>
-  <si>
-    <t>Stepper Motor</t>
-  </si>
-  <si>
-    <t>Stepper Motor Controller</t>
-  </si>
-  <si>
-    <t>Limit Switch</t>
   </si>
   <si>
     <t>Sensing Electronics</t>
@@ -315,6 +288,57 @@
   <si>
     <t xml:space="preserve">External piping used to facilitate fluid sensing and flow </t>
   </si>
+  <si>
+    <t>Mounting Screws</t>
+  </si>
+  <si>
+    <t>1/4" Pex Push Elbow 90</t>
+  </si>
+  <si>
+    <t>1/4" Pex Push Tee Fitting</t>
+  </si>
+  <si>
+    <t>1/4" Pex Push Ball Valve</t>
+  </si>
+  <si>
+    <t>YOTOO Reinforced Polyurethane Recoil Air Hose 1/4" Inner Diameter by 10' Long, Heavy Duty, Flexible Air Compressor Hose with Bend Restrictor, 1/4" Swivel Industrial Quick Coupler and Plug, Red - Amazon.com</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B01NBO4Q9F/ref=ewc_pr_img_2?smid=A1BU77VE99X2YG&amp;psc=1</t>
+  </si>
+  <si>
+    <t>1/4" Air Hose 10 ft max</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hooshing-Fitting-Counter-Internal-Thread/dp/B096TRHYWT/ref=sr_1_1_sspa?crid=3059MCDGUCF0W&amp;dib=eyJ2IjoiMSJ9.zc9M4jY4KYOHmgWr4pc_alpK00pP-2rKnDVd2hdCHzwfPQ6FFgA-Xzx7rWlx15puHAS-LTGU6OVQNVuhe-32wqA2xPS1JIMfs1S1_GLrN8XhWN-AmU7slEQpkQEq2nsSBQzSDoZ0bviOrHRVD-aYWq3QmcJbhEQJ9655yaIVHd90OzGsmi2plzb7miLKBbLYfrqR1fS7m5nk32mr9BCbiGMtNObbQSPE8WF7FNVy5OMvmkjIXs4KjOm3stqXO2sJJKTEkoz_nOkr02M0d3bvzES2zSbxjnPMrKk9Inm3ckU.2sOD18Ggag5nLf5QMVlDIM5fYHOWumwdSjeafqjFosI&amp;dib_tag=se&amp;keywords=1%2F2%22%2Bnpt%2Bplug&amp;qid=1718736063&amp;s=hi&amp;sprefix=1%2F2%2Bnpt%2Bplug%2Ctools%2C81&amp;sr=1-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+  </si>
+  <si>
+    <t>1/2" NPT Plug</t>
+  </si>
+  <si>
+    <t>1/2" Thrust Bearing</t>
+  </si>
+  <si>
+    <t>uxcell TC815 Thrust Needle Roller Bearings with Washers 1/2" Bore 15/16" OD 5/64" Width 5pcs: Amazon.com: Industrial &amp; Scientific</t>
+  </si>
+  <si>
+    <t>M5 x .8 mm Socket Head Screws</t>
+  </si>
+  <si>
+    <t>1/4" PEX to 1/2" Male NPT</t>
+  </si>
+  <si>
+    <t>YZM Straight Male Thread Adapter 1/4" Male x 1/4" OD Tube Quick Connector,for Water Purifiers Filters Reverse Osmosis Systems,5 pcs. - Amazon.com</t>
+  </si>
+  <si>
+    <t>1/4" PEX to 1/4" Male NPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B0C9C55H6K/ref=ewc_pr_img_4?smid=A1XIBCJEAGERRU&amp;psc=1</t>
+  </si>
+  <si>
+    <t>1/4" FNPT Coupling</t>
+  </si>
 </sst>
 </file>
 
@@ -337,7 +361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +371,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,11 +394,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -385,6 +416,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -652,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T465"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:I30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +701,7 @@
     <col min="6" max="6" width="25.28515625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="25.28515625" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" customWidth="1"/>
@@ -747,13 +782,13 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="J3">
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3">
         <v>8.85</v>
@@ -770,7 +805,7 @@
         <v>8.85</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -793,16 +828,16 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.99</v>
       </c>
       <c r="M4">
         <v>10</v>
@@ -813,7 +848,7 @@
       </c>
       <c r="O4" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.99</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -836,13 +871,13 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L5">
         <v>9.99</v>
@@ -880,16 +915,19 @@
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
+      <c r="K6" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.99</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
@@ -897,7 +935,7 @@
       </c>
       <c r="O6" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.99</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -920,24 +958,27 @@
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.99</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(J7/M7,0)</f>
         <v>1</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>N7*L7</f>
+        <v>6.99</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -960,27 +1001,27 @@
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="L8">
-        <v>10.99</v>
+        <v>7.99</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(J8/M8,0)</f>
         <v>1</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="1"/>
-        <v>10.99</v>
+        <f>N8*L8</f>
+        <v>7.99</v>
       </c>
       <c r="T8" s="3">
         <v>45158</v>
@@ -1000,19 +1041,19 @@
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.49</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="0"/>
@@ -1020,7 +1061,7 @@
       </c>
       <c r="O9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.49</v>
       </c>
       <c r="T9" s="3">
         <v>45158</v>
@@ -1039,14 +1080,20 @@
       <c r="H10" t="s">
         <v>20</v>
       </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
       <c r="J10">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>90</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.99</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="0"/>
@@ -1054,7 +1101,7 @@
       </c>
       <c r="O10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.99</v>
       </c>
       <c r="T10" s="3">
         <v>45158</v>
@@ -1068,39 +1115,39 @@
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="L11">
-        <v>18.899999999999999</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>ROUNDUP(J11/M11,0)</f>
+        <v>1</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="1"/>
-        <v>37.799999999999997</v>
+        <f>N11*L11</f>
+        <v>17.989999999999998</v>
       </c>
       <c r="P11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="T11" s="3">
         <v>45158</v>
@@ -1114,33 +1161,36 @@
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.99</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>ROUNDUP(J12/M12,0)</f>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="1"/>
+        <f>N12*L12</f>
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="T12" s="3">
         <v>45158</v>
@@ -1154,38 +1204,53 @@
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
         <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
       <c r="J14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1195,7 +1260,7 @@
       </c>
       <c r="N14" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="1"/>
@@ -1206,6 +1271,18 @@
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
       <c r="J15">
         <v>1</v>
       </c>
@@ -1228,23 +1305,8 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" t="s">
-        <v>43</v>
-      </c>
       <c r="J16">
         <v>1</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1287,15 +1349,6 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
-        <v>47</v>
-      </c>
       <c r="J18">
         <v>1</v>
       </c>
@@ -1318,15 +1371,6 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
       <c r="J19">
         <v>1</v>
       </c>
@@ -1349,23 +1393,23 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
+      <c r="K20" t="s">
+        <v>90</v>
+      </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.99</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="0"/>
@@ -1373,26 +1417,31 @@
       </c>
       <c r="O20" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="L21">
         <v>0</v>
       </c>
@@ -1412,15 +1461,6 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
-        <v>51</v>
-      </c>
       <c r="J22">
         <v>1</v>
       </c>
@@ -1443,14 +1483,17 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="F23" t="s">
-        <v>18</v>
+      <c r="G23" t="s">
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1460,7 +1503,7 @@
       </c>
       <c r="N23" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" si="1"/>
@@ -1471,14 +1514,17 @@
       <c r="A24">
         <v>22</v>
       </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1488,7 +1534,7 @@
       </c>
       <c r="N24" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" si="1"/>
@@ -1499,14 +1545,17 @@
       <c r="A25">
         <v>23</v>
       </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1516,7 +1565,7 @@
       </c>
       <c r="N25" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O25" s="1">
         <f t="shared" si="1"/>
@@ -1527,15 +1576,19 @@
       <c r="A26">
         <v>24</v>
       </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
+      <c r="K26" s="2"/>
       <c r="L26">
         <v>0</v>
       </c>
@@ -1555,33 +1608,51 @@
       <c r="A27">
         <v>25</v>
       </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>92</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O27" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s">
+        <v>94</v>
+      </c>
       <c r="J28">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -1591,7 +1662,7 @@
       </c>
       <c r="N28" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" si="1"/>
@@ -1602,18 +1673,6 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" t="s">
-        <v>58</v>
-      </c>
       <c r="J29">
         <v>1</v>
       </c>
@@ -1636,43 +1695,28 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" t="s">
-        <v>56</v>
-      </c>
       <c r="J30">
-        <v>4</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>54.61</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O30" s="1">
         <f t="shared" si="1"/>
-        <v>218.44</v>
+        <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="S30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -1697,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -1749,7 +1793,16 @@
         <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s">
+        <v>49</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -1773,28 +1826,46 @@
       <c r="A35">
         <v>33</v>
       </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s">
+        <v>47</v>
+      </c>
       <c r="J35">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>54.61</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O35" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>218.44</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
+      <c r="I36" t="s">
+        <v>83</v>
+      </c>
       <c r="J36">
         <v>1</v>
       </c>
@@ -1817,9 +1888,6 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
       <c r="J37">
         <v>1</v>
       </c>
@@ -1864,6 +1932,9 @@
       <c r="A39">
         <v>37</v>
       </c>
+      <c r="F39" t="s">
+        <v>52</v>
+      </c>
       <c r="J39">
         <v>1</v>
       </c>
@@ -1931,19 +2002,13 @@
         <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>62</v>
-      </c>
-      <c r="I42" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
-      <c r="K42" t="s">
-        <v>64</v>
-      </c>
       <c r="L42">
-        <v>70.5</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -1954,7 +2019,7 @@
       </c>
       <c r="O42" s="1">
         <f t="shared" si="1"/>
-        <v>70.5</v>
+        <v>0</v>
       </c>
       <c r="T42" s="3">
         <v>45158</v>
@@ -1964,20 +2029,11 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="G43" t="s">
-        <v>62</v>
-      </c>
-      <c r="I43" t="s">
-        <v>65</v>
-      </c>
       <c r="J43">
         <v>1</v>
       </c>
-      <c r="K43" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="L43">
-        <v>38.950000000000003</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -1988,10 +2044,10 @@
       </c>
       <c r="O43" s="1">
         <f t="shared" si="1"/>
-        <v>38.950000000000003</v>
+        <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="T43" s="3">
         <v>45158</v>
@@ -2045,23 +2101,14 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="G46" t="s">
-        <v>68</v>
-      </c>
-      <c r="I46" t="s">
-        <v>69</v>
-      </c>
       <c r="J46">
         <v>1</v>
       </c>
-      <c r="K46" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="L46">
-        <v>12.99</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N46" s="1">
         <f t="shared" si="0"/>
@@ -2069,18 +2116,27 @@
       </c>
       <c r="O46" s="1">
         <f t="shared" si="1"/>
-        <v>12.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
+      <c r="G47" t="s">
+        <v>53</v>
+      </c>
+      <c r="I47" t="s">
+        <v>54</v>
+      </c>
       <c r="J47">
         <v>1</v>
       </c>
+      <c r="K47" t="s">
+        <v>55</v>
+      </c>
       <c r="L47">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -2091,18 +2147,27 @@
       </c>
       <c r="O47" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+      <c r="I48" t="s">
+        <v>56</v>
+      </c>
       <c r="J48">
         <v>1</v>
       </c>
+      <c r="K48" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="L48">
-        <v>0</v>
+        <v>38.950000000000003</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -2113,7 +2178,7 @@
       </c>
       <c r="O48" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.950000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -2165,19 +2230,22 @@
         <v>49</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I51" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
+      <c r="K51" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="L51">
-        <v>0</v>
+        <v>12.99</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N51" s="1">
         <f t="shared" si="0"/>
@@ -2185,7 +2253,7 @@
       </c>
       <c r="O51" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -2280,6 +2348,12 @@
       <c r="A56">
         <v>54</v>
       </c>
+      <c r="G56" t="s">
+        <v>62</v>
+      </c>
+      <c r="I56" t="s">
+        <v>63</v>
+      </c>
       <c r="J56">
         <v>1</v>
       </c>
@@ -2390,12 +2464,6 @@
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="G61" t="s">
-        <v>73</v>
-      </c>
-      <c r="I61" t="s">
-        <v>74</v>
-      </c>
       <c r="J61">
         <v>1</v>
       </c>
@@ -2418,9 +2486,6 @@
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="I62" t="s">
-        <v>75</v>
-      </c>
       <c r="J62">
         <v>1</v>
       </c>
@@ -2509,6 +2574,12 @@
       <c r="A66">
         <v>64</v>
       </c>
+      <c r="G66" t="s">
+        <v>64</v>
+      </c>
+      <c r="I66" t="s">
+        <v>65</v>
+      </c>
       <c r="J66">
         <v>1</v>
       </c>
@@ -2531,6 +2602,9 @@
       <c r="A67">
         <v>65</v>
       </c>
+      <c r="I67" t="s">
+        <v>66</v>
+      </c>
       <c r="J67">
         <v>1</v>
       </c>
@@ -2553,12 +2627,6 @@
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="G68" t="s">
-        <v>76</v>
-      </c>
-      <c r="I68" t="s">
-        <v>77</v>
-      </c>
       <c r="J68">
         <v>1</v>
       </c>
@@ -2581,9 +2649,6 @@
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="I69" t="s">
-        <v>78</v>
-      </c>
       <c r="J69">
         <v>1</v>
       </c>
@@ -2672,6 +2737,12 @@
       <c r="A73">
         <v>71</v>
       </c>
+      <c r="G73" t="s">
+        <v>67</v>
+      </c>
+      <c r="I73" t="s">
+        <v>68</v>
+      </c>
       <c r="J73">
         <v>1</v>
       </c>
@@ -2693,6 +2764,9 @@
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
+      </c>
+      <c r="I74" t="s">
+        <v>69</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -11319,14 +11393,18 @@
     <hyperlink ref="K4" r:id="rId1" display="https://www.amazon.com/Malida-Connect-Reverse-Osmosis-System/dp/B00YYKB9K2/ref=pd_bxgy_vft_none_img_sccl_1/147-2290966-7422106?pd_rd_w=FvAsa&amp;content-id=amzn1.sym.7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_p=7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_r=678W2XE3CCP73JHQ5X2J&amp;pd_rd_wg=TCnbU&amp;pd_rd_r=601c734b-77d9-45b2-90ab-c781acc1d53e&amp;pd_rd_i=B00YYKB9K2&amp;psc=1" xr:uid="{25717976-5BF8-4C8D-8052-895C12486B28}"/>
     <hyperlink ref="K9" r:id="rId2" display="https://www.amazon.com/Malida-Connect-Fitting-Reverse-Osmosis/dp/B01M2XEJZA/ref=sr_1_2?content-id=amzn1.sym.9575273b-ecd8-4648-9bf0-15f20c657e0a&amp;keywords=reverse%2Bosmosis%2Bfittings&amp;pd_rd_r=1af7a1bd-e624-4f69-ae57-e1a456d389f2&amp;pd_rd_w=RcPqF&amp;pd_rd_wg=aljBP&amp;pf_rd_p=9575273b-ecd8-4648-9bf0-15f20c657e0a&amp;pf_rd_r=TF7WYWSQ1V7A797EMJ1P&amp;qid=1674251367&amp;sr=8-2&amp;th=1" xr:uid="{20E1CF67-F713-4BB5-9804-EF1D3F19D121}"/>
     <hyperlink ref="K5" r:id="rId3" xr:uid="{D786C015-A4D9-45A3-BE88-FDF185630D9D}"/>
-    <hyperlink ref="K30" r:id="rId4" display="https://www.amazon.com/gp/product/B07VD6QWZL/ref=ewc_pr_img_1?smid=A2KRDQ1AI5Y5G6&amp;psc=1" xr:uid="{34F3015D-C5A0-41E2-849C-D912589DB82C}"/>
-    <hyperlink ref="K43" r:id="rId5" xr:uid="{EDD14454-DBF7-4BE6-ACDC-55FC75B20A4F}"/>
-    <hyperlink ref="K11" r:id="rId6" display="https://www.amazon.com/Control-Angle180-Digital-Torque-Helicopter/dp/B07NQJ1VZ2?pd_rd_w=o4u9k&amp;content-id=amzn1.sym.19a914cd-0dca-42c7-976a-adbe4da0b2c6&amp;pf_rd_p=19a914cd-0dca-42c7-976a-adbe4da0b2c6&amp;pf_rd_r=1WH70Z685459XVCK4SVK&amp;pd_rd_wg=sznvv&amp;pd_rd_r=70da1834-5d84-497a-8c6a-90a6bb2331d0&amp;pd_rd_i=B07NQJ1VZ2&amp;psc=1&amp;ref_=pd_bap_d_grid_rp_0_1_ec_t" xr:uid="{350C2595-6DCC-4D51-813A-71E3B90526EA}"/>
-    <hyperlink ref="K46" r:id="rId7" xr:uid="{53F1C8F3-EB82-49BF-B78A-3916C23B6304}"/>
-    <hyperlink ref="K16" r:id="rId8" xr:uid="{AC32B3E8-8053-499E-834A-8DC8DFA56A68}"/>
+    <hyperlink ref="K6" r:id="rId4" xr:uid="{0D834329-BBA9-4D13-86D1-936D29D9C68B}"/>
+    <hyperlink ref="K35" r:id="rId5" display="https://www.amazon.com/Control-Angle180-Digital-Torque-Helicopter/dp/B07NQJ1VZ2?pd_rd_w=o4u9k&amp;content-id=amzn1.sym.19a914cd-0dca-42c7-976a-adbe4da0b2c6&amp;pf_rd_p=19a914cd-0dca-42c7-976a-adbe4da0b2c6&amp;pf_rd_r=1WH70Z685459XVCK4SVK&amp;pd_rd_wg=sznvv&amp;pd_rd_r=70da1834-5d84-497a-8c6a-90a6bb2331d0&amp;pd_rd_i=B07NQJ1VZ2&amp;psc=1&amp;ref_=pd_bap_d_grid_rp_0_1_ec_t" xr:uid="{493A9BCB-A8BB-4BF8-9086-A2467490E03F}"/>
+    <hyperlink ref="K48" r:id="rId6" display="https://www.amazon.com/gp/product/B07VD4RYXT/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;th=1" xr:uid="{2019DA30-EA73-4721-99F6-FCD7243F3FC1}"/>
+    <hyperlink ref="K51" r:id="rId7" display="https://www.amazon.com/gp/product/B01NBO4Q9F/ref=ewc_pr_img_2?smid=A1BU77VE99X2YG&amp;psc=1" xr:uid="{9D272701-1C11-4F62-904F-1F7F0D33EF7D}"/>
+    <hyperlink ref="K21" r:id="rId8" display="https://www.amazon.com/dp/B0C9C55H6K/ref=sspa_dk_detail_5?pd_rd_i=B0C2HMBSPB&amp;pd_rd_w=xVOzw&amp;content-id=amzn1.sym.0089de39-2448-4df6-a3d2-4943a23c9d2f&amp;pf_rd_p=0089de39-2448-4df6-a3d2-4943a23c9d2f&amp;pf_rd_r=P35V80B6XRN72BYT60N3&amp;pd_rd_wg=WyLcj&amp;pd_rd_r=42fe3dd5-c119-4d93-8a9f-d67657b825c1&amp;s=hi&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWxfdGhlbWF0aWM&amp;th=1" xr:uid="{41C7D563-DE32-46BF-81B7-92B51C7FF7F5}"/>
+    <hyperlink ref="K27" r:id="rId9" display="https://www.amazon.com/gp/product/B07VXSLNY5/ref=sw_img_1?smid=A30WUG2ZDGM0XM&amp;psc=1" xr:uid="{AFA5280C-74E9-4821-9ECE-15EC20FC6DFB}"/>
+    <hyperlink ref="K11" r:id="rId10" display="https://www.amazon.com/dp/B0BWWG857H/ref=sspa_dk_detail_4?pd_rd_i=B0BWWG857H&amp;pd_rd_w=v2HGd&amp;content-id=amzn1.sym.953c7d66-4120-4d22-a777-f19dbfa69309&amp;pf_rd_p=953c7d66-4120-4d22-a777-f19dbfa69309&amp;pf_rd_r=HHZ0FNGZ30601R179WKM&amp;pd_rd_wg=mhvXy&amp;pd_rd_r=65f3ee50-06af-42b0-9402-af016f761a65&amp;s=hi&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWwy&amp;th=1" xr:uid="{B565E25B-4EA7-4DE3-AD23-03D1C54A4817}"/>
+    <hyperlink ref="K7" r:id="rId11" display="https://www.amazon.com/gp/product/B01MRWDTZ2/ref=sw_img_1?smid=A39E18MGKR2SOC&amp;psc=1" xr:uid="{B0CF00B3-55D9-4725-9B6B-97DA1F2319C3}"/>
+    <hyperlink ref="K13" r:id="rId12" display="https://www.amazon.com/gp/product/B07VXSLNY5/ref=sw_img_1?smid=A30WUG2ZDGM0XM&amp;psc=1" xr:uid="{4C79B218-8744-42F8-9779-35F996317A96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -11347,13 +11425,13 @@
   <sheetData>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
@@ -11364,48 +11442,48 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -11431,7 +11509,7 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
